--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Slovenia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -451,7 +451,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +589,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -701,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -727,7 +727,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -807,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -823,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -839,7 +839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -897,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -913,7 +913,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -961,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1003,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1019,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1067,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="71">
   <si>
     <t>-</t>
   </si>
@@ -1345,6 +1345,12 @@
   </si>
   <si>
     <t>Obv: France Prešeren</t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -1747,15 +1753,6 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -2051,6 +2048,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2082,9 +2088,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="39"/>
+    <tableColumn id="2" name="Link" dataDxfId="38" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2355,11 +2361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2927,7 +2933,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:K10 J11 J12:K12 J13 J14:K14">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -2954,7 +2960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I14 J4:K4">
-    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2971,12 +2977,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3570,7 +3576,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:L6 I3 I8:L13 J7:L7 I14:K14">
-    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -3585,7 +3591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -3600,7 +3606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -3615,7 +3621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -3630,7 +3636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3645,7 +3651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3660,7 +3666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3675,7 +3681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3690,7 +3696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3705,7 +3711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3733,7 +3739,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4335,7 +4341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4350,7 +4356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4365,7 +4371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4435,13 +4441,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4449,14 +4455,15 @@
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -4467,21 +4474,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="47"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
@@ -4490,33 +4498,36 @@
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -4526,23 +4537,23 @@
       <c r="C3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -4551,12 +4562,15 @@
       <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="str">
-        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -4567,21 +4581,21 @@
         <v>58</v>
       </c>
       <c r="D4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -4593,12 +4607,15 @@
       <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" ref="N4:N14" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -4608,23 +4625,23 @@
       <c r="C5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -4633,12 +4650,15 @@
       <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -4648,23 +4668,23 @@
       <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -4673,12 +4693,15 @@
       <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -4688,23 +4711,23 @@
       <c r="C7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -4713,12 +4736,15 @@
       <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -4728,23 +4754,23 @@
       <c r="C8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -4753,12 +4779,15 @@
       <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -4768,23 +4797,23 @@
       <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -4793,12 +4822,15 @@
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -4808,23 +4840,23 @@
       <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -4833,12 +4865,15 @@
       <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -4848,23 +4883,23 @@
       <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -4873,12 +4908,15 @@
       <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -4888,23 +4926,23 @@
       <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
@@ -4913,12 +4951,15 @@
       <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -4928,37 +4969,40 @@
       <c r="C13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -4968,32 +5012,35 @@
       <c r="C14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="str">
+      <c r="J14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5002,11 +5049,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:L12 J13:J14 L13">
+  <conditionalFormatting sqref="K5:M12 K13:K14 M13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5018,7 +5065,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I14 J4:L4">
+  <conditionalFormatting sqref="J4:J14 K4:M4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5030,9 +5077,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5045,9 +5092,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5060,9 +5107,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5093,7 +5140,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5:L12 J13:J14 L13</xm:sqref>
+          <xm:sqref>K5:M12 K13:K14 M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{3F2BE473-2772-49C2-8AB8-A3FDBC87BB8D}">
@@ -5107,7 +5154,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I4:I14 J4:L4</xm:sqref>
+          <xm:sqref>J4:J14 K4:M4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5117,13 +5164,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5131,14 +5178,15 @@
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -5149,21 +5197,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="47"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
@@ -5172,33 +5221,36 @@
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -5208,23 +5260,23 @@
       <c r="C3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -5233,12 +5285,15 @@
       <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="str">
-        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -5249,21 +5304,21 @@
         <v>58</v>
       </c>
       <c r="D4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -5275,12 +5330,15 @@
       <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" ref="N4:N14" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -5290,23 +5348,23 @@
       <c r="C5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -5315,12 +5373,15 @@
       <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -5330,23 +5391,23 @@
       <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -5355,12 +5416,15 @@
       <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -5370,23 +5434,23 @@
       <c r="C7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -5395,12 +5459,15 @@
       <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -5410,23 +5477,23 @@
       <c r="C8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -5435,12 +5502,15 @@
       <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -5450,23 +5520,23 @@
       <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -5475,12 +5545,15 @@
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -5490,23 +5563,23 @@
       <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -5515,12 +5588,15 @@
       <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -5530,23 +5606,23 @@
       <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -5555,12 +5631,15 @@
       <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -5570,23 +5649,23 @@
       <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
@@ -5595,12 +5674,15 @@
       <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -5610,37 +5692,40 @@
       <c r="C13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -5650,32 +5735,35 @@
       <c r="C14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="str">
+      <c r="L14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5684,11 +5772,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:L12 J14:K14 J13 L13">
+  <conditionalFormatting sqref="K5:M12 K14:L14 K13 M13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5700,7 +5788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L3">
+  <conditionalFormatting sqref="K3:M3">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5712,7 +5800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I14 J4:L4">
+  <conditionalFormatting sqref="J4:J14 K4:M4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5724,9 +5812,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5739,9 +5827,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5754,9 +5842,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5787,7 +5875,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5:L12 J14:K14 J13 L13</xm:sqref>
+          <xm:sqref>K5:M12 K14:L14 K13 M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{63D80721-004B-4DC9-B76C-E46AD6A68EC6}">
@@ -5801,7 +5889,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J3:L3</xm:sqref>
+          <xm:sqref>K3:M3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{9D751435-DAF3-4BBE-8C0E-0DCD76C974EC}">
@@ -5815,7 +5903,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I4:I14 J4:L4</xm:sqref>
+          <xm:sqref>J4:J14 K4:M4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5825,13 +5913,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5839,14 +5927,15 @@
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -5857,21 +5946,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="47"/>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="47"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
@@ -5880,33 +5970,36 @@
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -5916,23 +6009,23 @@
       <c r="C3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -5941,12 +6034,15 @@
       <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="str">
-        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -5957,21 +6053,21 @@
         <v>58</v>
       </c>
       <c r="D4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="22" t="s">
@@ -5983,12 +6079,15 @@
       <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" ref="N4:N14" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -5998,23 +6097,23 @@
       <c r="C5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -6023,12 +6122,15 @@
       <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -6038,23 +6140,23 @@
       <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -6063,12 +6165,15 @@
       <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -6078,23 +6183,23 @@
       <c r="C7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -6103,12 +6208,15 @@
       <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -6118,23 +6226,23 @@
       <c r="C8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -6143,12 +6251,15 @@
       <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -6158,23 +6269,23 @@
       <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -6183,12 +6294,15 @@
       <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -6198,23 +6312,23 @@
       <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>0</v>
-      </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -6223,12 +6337,15 @@
       <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -6238,23 +6355,23 @@
       <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -6263,12 +6380,15 @@
       <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -6278,23 +6398,23 @@
       <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="20" t="s">
@@ -6303,12 +6423,15 @@
       <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -6318,37 +6441,40 @@
       <c r="C13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -6358,32 +6484,35 @@
       <c r="C14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="D14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="str">
+      <c r="L14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6392,11 +6521,11 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:L12 J14:K14 J13 L13">
+  <conditionalFormatting sqref="K5:M12 K14:L14 K13 M13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6408,7 +6537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I14 J4:L4">
+  <conditionalFormatting sqref="J4:J14 K4:M4">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6420,7 +6549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L3">
+  <conditionalFormatting sqref="K3:M3">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6432,9 +6561,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6447,9 +6576,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -6462,9 +6591,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -6495,7 +6624,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5:L12 J14:K14 J13 L13</xm:sqref>
+          <xm:sqref>K5:M12 K14:L14 K13 M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{501F5484-D1FE-4E2A-A969-703124E35777}">
@@ -6509,7 +6638,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J3:L3</xm:sqref>
+          <xm:sqref>K3:M3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{5482DCC8-E586-4DFD-AC2B-72110760154D}">
@@ -6523,7 +6652,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I4:I14 J4:L4</xm:sqref>
+          <xm:sqref>J4:J14 K4:M4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6533,13 +6662,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6547,14 +6676,15 @@
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -6565,21 +6695,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="49"/>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="49"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
@@ -6588,33 +6719,36 @@
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -6624,37 +6758,40 @@
       <c r="C3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="31" t="s">
+      <c r="I3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -6665,24 +6802,24 @@
         <v>58</v>
       </c>
       <c r="D4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="34" t="s">
@@ -6691,12 +6828,15 @@
       <c r="L4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -6706,23 +6846,23 @@
       <c r="C5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="35" t="s">
@@ -6731,12 +6871,15 @@
       <c r="L5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -6746,23 +6889,23 @@
       <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="35" t="s">
+      <c r="I6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="35" t="s">
@@ -6771,12 +6914,15 @@
       <c r="L6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -6786,23 +6932,23 @@
       <c r="C7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="35" t="s">
@@ -6811,12 +6957,15 @@
       <c r="L7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -6826,23 +6975,23 @@
       <c r="C8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="35" t="s">
@@ -6851,12 +7000,15 @@
       <c r="L8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -6866,23 +7018,23 @@
       <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="37" t="s">
+      <c r="D9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="35" t="s">
+      <c r="I9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="35" t="s">
@@ -6891,12 +7043,15 @@
       <c r="L9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -6906,23 +7061,23 @@
       <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="D10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35" t="s">
+      <c r="I10" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="35" t="s">
@@ -6931,12 +7086,15 @@
       <c r="L10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -6946,23 +7104,23 @@
       <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="37" t="s">
+      <c r="D11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="35" t="s">
@@ -6971,12 +7129,15 @@
       <c r="L11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -6986,23 +7147,23 @@
       <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="35" t="s">
@@ -7011,12 +7172,15 @@
       <c r="L12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -7026,37 +7190,40 @@
       <c r="C13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="37" t="s">
+      <c r="D13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -7066,32 +7233,35 @@
       <c r="C14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="D14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="str">
+      <c r="L14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7100,9 +7270,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7112,13 +7282,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7126,14 +7296,15 @@
     <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -7144,21 +7315,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="49"/>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="49"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="17" t="s">
@@ -7167,33 +7339,36 @@
       <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -7203,37 +7378,40 @@
       <c r="C3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="31" t="s">
+      <c r="I3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M14" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -7244,24 +7422,24 @@
         <v>58</v>
       </c>
       <c r="D4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="34" t="s">
@@ -7270,12 +7448,15 @@
       <c r="L4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -7285,23 +7466,23 @@
       <c r="C5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="35" t="s">
@@ -7310,12 +7491,15 @@
       <c r="L5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -7325,23 +7509,23 @@
       <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="35" t="s">
+      <c r="I6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="35" t="s">
@@ -7350,12 +7534,15 @@
       <c r="L6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -7365,23 +7552,23 @@
       <c r="C7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="35" t="s">
@@ -7390,12 +7577,15 @@
       <c r="L7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -7405,23 +7595,23 @@
       <c r="C8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="35" t="s">
@@ -7430,12 +7620,15 @@
       <c r="L8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -7445,23 +7638,23 @@
       <c r="C9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="39" t="s">
+      <c r="D9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="35" t="s">
+      <c r="I9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="35" t="s">
@@ -7470,12 +7663,15 @@
       <c r="L9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -7485,23 +7681,23 @@
       <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="39" t="s">
+      <c r="D10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35" t="s">
+      <c r="I10" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="35" t="s">
@@ -7510,12 +7706,15 @@
       <c r="L10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -7525,23 +7724,23 @@
       <c r="C11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="39" t="s">
+      <c r="D11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="35" t="s">
@@ -7550,12 +7749,15 @@
       <c r="L11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -7565,23 +7767,23 @@
       <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="35" t="s">
@@ -7590,12 +7792,15 @@
       <c r="L12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -7605,37 +7810,40 @@
       <c r="C13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39" t="s">
+      <c r="D13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -7645,32 +7853,35 @@
       <c r="C14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="D14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="str">
+      <c r="L14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7679,9 +7890,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovenia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Slovenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA6319B-FADF-46A9-BBCA-DF4E437FABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="23" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -170,12 +171,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -308,12 +309,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -446,12 +447,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -584,12 +585,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -605,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -669,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -685,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -701,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -722,12 +723,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -743,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -759,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -775,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -791,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -807,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -823,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -839,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -860,12 +861,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -881,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -897,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -913,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -929,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -945,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -977,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -998,12 +999,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1019,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1067,7 +1068,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{0E47D031-DF60-4D6D-8C37-ED5C4B734EA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1131,12 +1148,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{1D26B365-7F72-46B6-9CBF-87CE3F8D8F68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="81">
   <si>
     <t>-</t>
   </si>
@@ -1352,11 +1385,41 @@
   <si>
     <t>Rev: new map of Europe</t>
   </si>
+  <si>
+    <t>38.008.750</t>
+  </si>
+  <si>
+    <t>22.008.750</t>
+  </si>
+  <si>
+    <t>17.000.000</t>
+  </si>
+  <si>
+    <t>22.000.000</t>
+  </si>
+  <si>
+    <t>8.000.000</t>
+  </si>
+  <si>
+    <t>14.000.000</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>11.000.000</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>4.000.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1501,7 +1564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1596,13 +1659,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1718,6 +1825,9 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1745,13 +1855,530 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2081,16 +2708,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="39"/>
-    <tableColumn id="2" name="Link" dataDxfId="38" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="100" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2358,55 +2985,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="12" width="3.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -2439,7 +3066,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -2479,7 +3106,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -2521,7 +3148,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -2561,7 +3188,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -2601,7 +3228,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -2641,7 +3268,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -2681,7 +3308,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -2721,7 +3348,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -2761,7 +3388,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -2801,7 +3428,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -2841,7 +3468,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -2881,7 +3508,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -2921,8 +3548,85 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="3"/>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" ref="M15:M16" si="1">IF(OR(AND(I15&gt;1,I15&lt;&gt;"-"),AND(J15&gt;1,J15&lt;&gt;"-"),AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2933,8 +3637,795 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:K10 J11 J12:K12 J13 J14:K14">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I14 J4:K4">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I14 J4:K4">
+    <cfRule type="containsText" dxfId="79" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K3">
+    <cfRule type="containsText" dxfId="78" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:K15">
+    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="A16:M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f t="shared" ref="M4:M16" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I5:L6 I3 I8:L13 J7:L7 I14:K14">
+    <cfRule type="containsText" dxfId="72" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -2947,7 +4438,115 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I14 J4:K4">
+  <conditionalFormatting sqref="K3">
+    <cfRule type="containsText" dxfId="71" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="70" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="containsText" dxfId="69" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="68" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2959,12 +4558,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I14 J4:K4">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="63" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K3">
+  <conditionalFormatting sqref="J15:K15">
+    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2976,14 +4600,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K3">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K11))))</formula>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2996,63 +4620,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:M14"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="A16:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="3.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -3085,19 +4726,19 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -3108,16 +4749,16 @@
       <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="26">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="12" t="str">
@@ -3125,12 +4766,12 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>58</v>
@@ -3150,16 +4791,16 @@
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="I4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="12" t="str">
@@ -3167,19 +4808,19 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="27" t="s">
-        <v>44</v>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>0</v>
@@ -3190,16 +4831,16 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="26" t="s">
+      <c r="I5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="12" t="str">
@@ -3207,12 +4848,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>60</v>
@@ -3230,16 +4871,16 @@
       <c r="H6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26" t="s">
+      <c r="I6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="12" t="str">
@@ -3247,12 +4888,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>60</v>
@@ -3270,16 +4911,16 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="26" t="s">
+      <c r="I7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M7" s="12" t="str">
@@ -3287,12 +4928,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>60</v>
@@ -3310,16 +4951,16 @@
       <c r="H8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="26" t="s">
+      <c r="I8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="12" t="str">
@@ -3327,12 +4968,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>60</v>
@@ -3350,16 +4991,16 @@
       <c r="H9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="26" t="s">
+      <c r="I9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M9" s="12" t="str">
@@ -3367,12 +5008,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>60</v>
@@ -3390,16 +5031,16 @@
       <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="26" t="s">
+      <c r="I10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="12" t="str">
@@ -3407,12 +5048,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>60</v>
@@ -3430,16 +5071,16 @@
       <c r="H11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="26" t="s">
+      <c r="I11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M11" s="12" t="str">
@@ -3447,12 +5088,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>60</v>
@@ -3470,16 +5111,16 @@
       <c r="H12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="26" t="s">
+      <c r="I12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="12" t="str">
@@ -3487,12 +5128,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>60</v>
@@ -3510,16 +5151,16 @@
       <c r="H13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="26" t="s">
+      <c r="I13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="12" t="str">
@@ -3527,12 +5168,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>60</v>
@@ -3547,23 +5188,103 @@
       <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="H14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" ref="M15:M16" si="1">IF(OR(AND(I15&gt;1,I15&lt;&gt;"-"),AND(J15&gt;1,J15&lt;&gt;"-"),AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3575,11 +5296,8 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:L6 I3 I8:L13 J7:L7 I14:K14">
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I1))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="J5:L12 J14:K14 J13 L13">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3590,10 +5308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I4:I14 J4:L4">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3605,11 +5320,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="J3:L3">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3620,9 +5332,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -3635,9 +5347,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -3651,9 +5363,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:K15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3665,726 +5460,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M14" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J5:L12 J14:K14 J13 L13">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I14 J4:L4">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:L3">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4392,7 +5467,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{4F69F102-F488-4C57-B057-CED0FB848B7F}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{4F69F102-F488-4C57-B057-CED0FB848B7F}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -4403,10 +5478,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5:L12 J14:K14 J13 L13</xm:sqref>
+          <xm:sqref>J5:L12 J13 L13 J14:K15 J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{D432C8A5-106D-4754-803E-FCD12B6F97B3}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" text="*-" id="{D432C8A5-106D-4754-803E-FCD12B6F97B3}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
@@ -4420,7 +5495,7 @@
           <xm:sqref>J3:L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{A731C907-1852-408E-9507-7C98A26AFD28}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{A731C907-1852-408E-9507-7C98A26AFD28}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
@@ -4433,6 +5508,20 @@
           </x14:cfRule>
           <xm:sqref>I4:I14 J4:L4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{A1AC0E8E-5476-4075-8BDC-18FF40DEA65D}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I15</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4440,58 +5529,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D14"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="A16:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -4527,7 +5616,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -4570,7 +5659,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -4615,7 +5704,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -4658,7 +5747,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -4701,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -4744,7 +5833,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -4787,7 +5876,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -4830,7 +5919,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -4873,7 +5962,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -4916,7 +6005,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -4959,7 +6048,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -5002,7 +6091,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -5042,6 +6131,92 @@
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" ref="N15:N16" si="1">IF(OR(AND(J15&gt;1,J15&lt;&gt;"-"),AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-"),AND(M15&gt;1,M15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5054,6 +6229,132 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:M12 K13:K14 M13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J14 K4:M4">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M16">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5065,8 +6366,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14 K4:M4">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5077,10 +6378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5092,36 +6390,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5129,7 +6397,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{C6C91AEB-22E6-4A42-880F-53D7AAF82A8E}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{C6C91AEB-22E6-4A42-880F-53D7AAF82A8E}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5140,10 +6408,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:M12 K13:K14 M13</xm:sqref>
+          <xm:sqref>K5:M12 M13 K13:K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{3F2BE473-2772-49C2-8AB8-A3FDBC87BB8D}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" text="*-" id="{3F2BE473-2772-49C2-8AB8-A3FDBC87BB8D}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5156,6 +6424,34 @@
           </x14:cfRule>
           <xm:sqref>J4:J14 K4:M4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" text="*-" id="{CE898121-3866-4F81-9AEC-B47AF4299B0B}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{65697732-EC77-44A6-803A-3689FF1032B7}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5163,58 +6459,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D14"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="A16:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -5250,7 +6546,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -5293,7 +6589,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -5334,11 +6630,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="12" t="str">
-        <f t="shared" ref="N4:N14" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N4:N16" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-"),AND(M4&gt;1,M4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -5381,7 +6677,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -5424,7 +6720,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -5467,7 +6763,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -5510,7 +6806,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -5553,7 +6849,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -5596,7 +6892,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -5639,7 +6935,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -5682,7 +6978,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -5725,7 +7021,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -5764,6 +7060,92 @@
         <v>0</v>
       </c>
       <c r="N14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5777,6 +7159,144 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:M12 K14:L14 K13 M13">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M3">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J14 K4:M4">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5788,8 +7308,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M3">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5800,22 +7320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14 K4:M4">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5827,24 +7332,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5864,7 +7354,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{135B15D1-EDF2-4DB9-8D8C-CDB67A51852A}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" text="*-" id="{135B15D1-EDF2-4DB9-8D8C-CDB67A51852A}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5875,10 +7365,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:M12 K14:L14 K13 M13</xm:sqref>
+          <xm:sqref>K5:M12 K14:L14 K13 M13 K15:K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{63D80721-004B-4DC9-B76C-E46AD6A68EC6}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" text="*-" id="{63D80721-004B-4DC9-B76C-E46AD6A68EC6}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5892,7 +7382,7 @@
           <xm:sqref>K3:M3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{9D751435-DAF3-4BBE-8C0E-0DCD76C974EC}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" text="*-" id="{9D751435-DAF3-4BBE-8C0E-0DCD76C974EC}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5905,6 +7395,34 @@
           </x14:cfRule>
           <xm:sqref>J4:J14 K4:M4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" text="*-" id="{3E8644CA-6D25-4798-9522-7F6C9570F8B0}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{FA7A5FAF-74FC-4358-8073-C2857F285AF8}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5912,58 +7430,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D14"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="A16:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -5999,7 +7517,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -6042,7 +7560,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -6087,7 +7605,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -6130,7 +7648,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -6173,7 +7691,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -6216,7 +7734,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -6259,7 +7777,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -6302,7 +7820,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -6345,7 +7863,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -6388,7 +7906,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -6431,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -6474,7 +7992,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -6514,6 +8032,92 @@
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" ref="N15:N16" si="1">IF(OR(AND(J15&gt;1,J15&lt;&gt;"-"),AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-"),AND(M15&gt;1,M15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6526,6 +8130,129 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:M12 K14:L14 K13 M13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J14 K4:M4">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M3">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:L15">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6537,8 +8264,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14 K4:M4">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6549,22 +8276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M3">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6576,24 +8288,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -6613,7 +8310,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{F6232136-129C-492B-967A-F3A858C868FE}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" text="*-" id="{F6232136-129C-492B-967A-F3A858C868FE}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6624,10 +8321,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:M12 K14:L14 K13 M13</xm:sqref>
+          <xm:sqref>K5:M12 K13 M13 K14:L15 K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{501F5484-D1FE-4E2A-A969-703124E35777}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" text="*-" id="{501F5484-D1FE-4E2A-A969-703124E35777}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6641,7 +8338,7 @@
           <xm:sqref>K3:M3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{5482DCC8-E586-4DFD-AC2B-72110760154D}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" text="*-" id="{5482DCC8-E586-4DFD-AC2B-72110760154D}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
@@ -6654,6 +8351,34 @@
           </x14:cfRule>
           <xm:sqref>J4:J14 K4:M4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{5A1D71DB-6B0A-4FCE-94BA-BD2CDCC191CC}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{8CAF45BA-136A-40D8-A9A0-6F1A7CF396C1}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -6661,58 +8386,58 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="A16:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="48" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -6748,7 +8473,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -6791,7 +8516,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -6836,7 +8561,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -6879,7 +8604,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -6922,7 +8647,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -6965,7 +8690,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -7008,7 +8733,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -7051,7 +8776,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -7094,7 +8819,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -7137,7 +8862,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -7180,7 +8905,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -7223,7 +8948,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -7263,6 +8988,92 @@
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" ref="N15:N16" si="1">IF(OR(AND(J15&gt;1,J15&lt;&gt;"-"),AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-"),AND(M15&gt;1,M15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7274,65 +9085,208 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
   </mergeCells>
+  <conditionalFormatting sqref="K15:L15">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" text="*-" id="{1C2B59ED-D852-4573-804B-39DB9B0868B7}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!J13))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K15:L15 K16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{62F58E02-31A1-47D5-8C38-DFF9AC019AB4}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{E1FCB8CA-334E-4855-9DFB-B626F35864E0}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11" max="13" width="3.85546875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="48" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -7354,21 +9308,27 @@
       <c r="I2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2007</v>
       </c>
@@ -7394,24 +9354,30 @@
       <c r="I3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="31" t="s">
+      <c r="J3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="12" t="str">
-        <f t="shared" ref="N3:N14" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12" t="str">
+        <f t="shared" ref="P3:P14" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2008</v>
       </c>
@@ -7439,10 +9405,10 @@
       <c r="I4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="J4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="34" t="s">
@@ -7451,12 +9417,18 @@
       <c r="M4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="12" t="str">
+      <c r="N4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2009</v>
       </c>
@@ -7482,10 +9454,10 @@
       <c r="I5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="35" t="s">
@@ -7494,12 +9466,18 @@
       <c r="M5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="12" t="str">
+      <c r="N5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -7525,10 +9503,10 @@
       <c r="I6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="35" t="s">
@@ -7537,12 +9515,18 @@
       <c r="M6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="12" t="str">
+      <c r="N6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2011</v>
       </c>
@@ -7568,10 +9552,10 @@
       <c r="I7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="35" t="s">
@@ -7580,12 +9564,18 @@
       <c r="M7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2012</v>
       </c>
@@ -7611,10 +9601,10 @@
       <c r="I8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L8" s="35" t="s">
@@ -7623,12 +9613,18 @@
       <c r="M8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="12" t="str">
+      <c r="N8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
@@ -7654,10 +9650,10 @@
       <c r="I9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="35" t="s">
@@ -7666,12 +9662,18 @@
       <c r="M9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="N9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2014</v>
       </c>
@@ -7697,10 +9699,10 @@
       <c r="I10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="35" t="s">
@@ -7709,12 +9711,18 @@
       <c r="M10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="12" t="str">
+      <c r="N10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2015</v>
       </c>
@@ -7740,10 +9748,10 @@
       <c r="I11" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="35" t="s">
+      <c r="J11" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="35" t="s">
@@ -7752,12 +9760,18 @@
       <c r="M11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="N11" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -7783,10 +9797,10 @@
       <c r="I12" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35" t="s">
+      <c r="J12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="35" t="s">
@@ -7795,12 +9809,18 @@
       <c r="M12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="N12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2017</v>
       </c>
@@ -7826,24 +9846,30 @@
       <c r="I13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="str">
+      <c r="J13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2018</v>
       </c>
@@ -7869,20 +9895,124 @@
       <c r="I14" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35" t="s">
+      <c r="J14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12" t="str">
+      <c r="M14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12" t="str">
+        <f t="shared" ref="P15:P16" si="1">IF(OR(AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-"),AND(M15&gt;1,M15&lt;&gt;"-"),AND(N15&gt;1,N15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7891,17 +10021,173 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
+  <conditionalFormatting sqref="L15:M15">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(O15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" text="*-" id="{42A3306C-04D8-4801-9D4E-9F29DC5A3178}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!K13))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L15:M15 L16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" text="*-" id="{6A8A0860-CEC6-4D87-8BEF-3AE36F8A85B1}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" text="*-" id="{DE7B14D3-FD9B-457D-BD4B-0EDA840D0E44}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!#REF!))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7911,14 +10197,14 @@
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -7929,7 +10215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -7940,7 +10226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -7951,7 +10237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -7962,7 +10248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -7973,7 +10259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -7984,7 +10270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -7997,12 +10283,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B06439-8125-4F9F-B298-8AD94E40B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD3180-9F77-4BF3-A1C7-61CFA14549D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1314,9 +1314,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -1587,6 +1584,9 @@
   </si>
   <si>
     <t>4.006.750</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -3305,11 +3305,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3329,21 +3329,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
       <c r="J1" s="50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1" s="51"/>
       <c r="L1" s="51"/>
@@ -3355,40 +3355,40 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -3397,14 +3397,14 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -3443,19 +3443,19 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3491,14 +3491,14 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>0</v>
@@ -3537,14 +3537,14 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
@@ -3583,14 +3583,14 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -3721,17 +3721,17 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -3767,10 +3767,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>0</v>
@@ -3813,10 +3813,10 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>0</v>
@@ -3859,10 +3859,10 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>0</v>
@@ -3905,10 +3905,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>0</v>
@@ -3997,20 +3997,20 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>0</v>
@@ -4043,10 +4043,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>0</v>
@@ -4089,10 +4089,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19" t="s">
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -4374,7 +4374,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4394,21 +4394,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
       <c r="J1" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="51"/>
       <c r="L1" s="51"/>
@@ -4420,40 +4420,40 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -4462,14 +4462,14 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -4508,19 +4508,19 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -4556,14 +4556,14 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>0</v>
@@ -4602,14 +4602,14 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
@@ -4648,14 +4648,14 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>0</v>
@@ -4694,10 +4694,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>0</v>
@@ -4740,10 +4740,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -4786,17 +4786,17 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -4832,10 +4832,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>0</v>
@@ -4924,10 +4924,10 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>0</v>
@@ -4970,10 +4970,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>0</v>
@@ -5062,20 +5062,20 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>0</v>
@@ -5108,10 +5108,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>0</v>
@@ -5154,10 +5154,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
@@ -5170,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -5200,14 +5200,14 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>0</v>
@@ -5649,7 +5649,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5669,21 +5669,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
       <c r="J1" s="50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="51"/>
       <c r="L1" s="51"/>
@@ -5695,40 +5695,40 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -5737,14 +5737,14 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -5783,19 +5783,19 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5831,14 +5831,14 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>0</v>
@@ -5877,14 +5877,14 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
@@ -5923,14 +5923,14 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>0</v>
@@ -5969,10 +5969,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>0</v>
@@ -6015,10 +6015,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -6061,17 +6061,17 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -6107,10 +6107,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>0</v>
@@ -6153,10 +6153,10 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>0</v>
@@ -6199,10 +6199,10 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>0</v>
@@ -6245,10 +6245,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>0</v>
@@ -6291,10 +6291,10 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
@@ -6304,10 +6304,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>0</v>
@@ -6337,10 +6337,10 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>0</v>
@@ -6383,10 +6383,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>0</v>
@@ -6429,10 +6429,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>0</v>
@@ -6475,10 +6475,10 @@
         <v>2022</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19" t="s">
@@ -6491,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -6728,7 +6728,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6749,22 +6749,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="49"/>
       <c r="K1" s="50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -6776,43 +6776,43 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -6821,17 +6821,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6870,22 +6870,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -6921,17 +6921,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -6970,17 +6970,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -7019,17 +7019,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -7068,13 +7068,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>0</v>
@@ -7117,13 +7117,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>0</v>
@@ -7166,20 +7166,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
@@ -7215,13 +7215,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>0</v>
@@ -7264,13 +7264,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
@@ -7283,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>0</v>
@@ -7313,13 +7313,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>0</v>
@@ -7362,13 +7362,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
@@ -7378,10 +7378,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>0</v>
@@ -7411,13 +7411,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -7427,10 +7427,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>0</v>
@@ -7460,13 +7460,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -7509,23 +7509,23 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -7558,13 +7558,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>0</v>
@@ -7607,13 +7607,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -7626,10 +7626,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>0</v>
@@ -8070,7 +8070,7 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8091,21 +8091,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="J1" s="54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
@@ -8116,37 +8116,37 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -8155,17 +8155,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -8198,22 +8198,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -8243,17 +8243,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -8286,17 +8286,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -8329,17 +8329,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -8372,13 +8372,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>0</v>
@@ -8415,13 +8415,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>0</v>
@@ -8458,20 +8458,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
@@ -8501,13 +8501,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>0</v>
@@ -8587,13 +8587,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>0</v>
@@ -8630,13 +8630,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>0</v>
@@ -8673,13 +8673,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>0</v>
@@ -8716,13 +8716,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -8759,13 +8759,13 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -8802,13 +8802,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -8845,13 +8845,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -9212,7 +9212,7 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9233,21 +9233,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="J1" s="54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
@@ -9258,37 +9258,37 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -9297,17 +9297,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -9340,22 +9340,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -9385,17 +9385,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -9428,17 +9428,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -9471,17 +9471,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -9514,13 +9514,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>0</v>
@@ -9557,13 +9557,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>0</v>
@@ -9600,20 +9600,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>0</v>
@@ -9686,13 +9686,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>0</v>
@@ -9772,13 +9772,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>0</v>
@@ -9815,13 +9815,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>0</v>
@@ -9858,13 +9858,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -9901,13 +9901,13 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -9944,13 +9944,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -9987,13 +9987,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -10395,7 +10395,7 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10416,21 +10416,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="J1" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
@@ -10441,37 +10441,37 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -10480,17 +10480,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
@@ -10523,22 +10523,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
@@ -10568,17 +10568,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
@@ -10611,17 +10611,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
@@ -10654,17 +10654,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
@@ -10697,13 +10697,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="32" t="s">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>0</v>
@@ -10740,13 +10740,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="32" t="s">
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>0</v>
@@ -10783,20 +10783,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="32" t="s">
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>0</v>
@@ -10869,13 +10869,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="32" t="s">
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>0</v>
@@ -10912,13 +10912,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="32" t="s">
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>0</v>
@@ -10955,13 +10955,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="32" t="s">
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>0</v>
@@ -10998,13 +10998,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>0</v>
@@ -11041,13 +11041,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -11084,13 +11084,13 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -11127,13 +11127,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -11146,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -11170,13 +11170,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -11394,11 +11394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11419,22 +11419,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="49"/>
       <c r="K1" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
@@ -11446,43 +11446,43 @@
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -11491,17 +11491,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
@@ -11540,22 +11540,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
@@ -11591,17 +11591,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
@@ -11640,17 +11640,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
@@ -11689,17 +11689,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
@@ -11738,13 +11738,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="32" t="s">
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>0</v>
@@ -11787,13 +11787,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="32" t="s">
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>0</v>
@@ -11836,20 +11836,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
@@ -11885,13 +11885,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="32" t="s">
@@ -11901,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>0</v>
@@ -11934,13 +11934,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="32" t="s">
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>0</v>
@@ -11983,13 +11983,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="32" t="s">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>0</v>
@@ -12032,13 +12032,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="32" t="s">
@@ -12051,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>0</v>
@@ -12081,13 +12081,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -12179,23 +12179,23 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -12228,13 +12228,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -12247,10 +12247,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>0</v>
@@ -12277,17 +12277,17 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>0</v>
@@ -12625,13 +12625,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12639,10 +12639,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12650,10 +12650,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12661,10 +12661,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12672,10 +12672,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12683,10 +12683,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12694,10 +12694,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovenia/#EURO#Slovenia#Regular#[2007-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD3180-9F77-4BF3-A1C7-61CFA14549D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D445032-F66D-4891-8C59-5E71DC07046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="23" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1306,7 +1316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="94">
   <si>
     <t>-</t>
   </si>
@@ -1318,12 +1328,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -1514,9 +1518,6 @@
     <t>Obv: France Prešeren</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Rev: new map of Europe</t>
   </si>
   <si>
@@ -1588,6 +1589,18 @@
   <si>
     <t>Subject</t>
   </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_marks_2</t>
+  </si>
 </sst>
 </file>
 
@@ -1653,6 +1666,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1747,7 +1762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1886,13 +1901,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2020,6 +2059,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2065,6 +2107,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2072,15 +2129,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="118">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3001,6 +3049,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3032,9 +3089,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="116" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3305,90 +3362,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="13" width="3.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="3.81640625" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="13" width="3.6328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="3.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="N2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -3397,14 +3454,14 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -3443,19 +3500,19 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3491,14 +3548,14 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>0</v>
@@ -3537,14 +3594,14 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
@@ -3583,14 +3640,14 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>0</v>
@@ -3629,10 +3686,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
@@ -3642,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>0</v>
@@ -3675,10 +3732,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
@@ -3688,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -3721,17 +3778,17 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -3767,10 +3824,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -3780,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>0</v>
@@ -3813,10 +3870,10 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -3829,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>0</v>
@@ -3859,10 +3916,10 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -3872,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>0</v>
@@ -3905,10 +3962,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
@@ -3921,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>0</v>
@@ -3951,10 +4008,10 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
@@ -3967,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>0</v>
@@ -3997,20 +4054,20 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>0</v>
@@ -4043,10 +4100,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
@@ -4056,13 +4113,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>0</v>
@@ -4089,10 +4146,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
@@ -4105,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -4135,10 +4192,10 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19" t="s">
@@ -4154,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -4177,16 +4234,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K5:L10 K11 K12:L12 K13 K14:L14">
-    <cfRule type="containsText" dxfId="117" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -4213,7 +4270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J14 K4:L4">
-    <cfRule type="containsText" dxfId="116" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4230,12 +4287,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="115" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="114" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -4250,7 +4307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:L15">
-    <cfRule type="containsText" dxfId="113" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -4277,12 +4334,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="112" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L19">
-    <cfRule type="containsText" dxfId="111" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -4309,12 +4366,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J19">
-    <cfRule type="containsText" dxfId="110" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="109" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -4329,7 +4386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="108" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4356,7 +4413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K19">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4368,92 +4425,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="14" width="3.81640625" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.6328125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="3.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="N2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -4462,14 +4519,14 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -4508,19 +4565,19 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -4556,14 +4613,14 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>0</v>
@@ -4602,14 +4659,14 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
@@ -4648,14 +4705,14 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>0</v>
@@ -4694,10 +4751,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
@@ -4707,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>0</v>
@@ -4740,10 +4797,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
@@ -4753,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -4786,17 +4843,17 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -4832,10 +4889,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -4845,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>0</v>
@@ -4878,10 +4935,10 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -4894,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>0</v>
@@ -4924,10 +4981,10 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -4937,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>0</v>
@@ -4970,10 +5027,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
@@ -4986,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>0</v>
@@ -5016,10 +5073,10 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
@@ -5032,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>0</v>
@@ -5062,20 +5119,20 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>0</v>
@@ -5108,10 +5165,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
@@ -5121,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>0</v>
@@ -5154,10 +5211,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
@@ -5170,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -5200,14 +5257,14 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>0</v>
@@ -5216,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>0</v>
@@ -5241,17 +5298,25 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J5:M6 J3 J8:M13 K7:M7 J14:L14">
-    <cfRule type="containsText" dxfId="106" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -5266,7 +5331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="105" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -5281,7 +5346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="104" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -5296,7 +5361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="103" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -5311,7 +5376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="102" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -5326,7 +5391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="101" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -5341,7 +5406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="100" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -5356,7 +5421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="99" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -5371,7 +5436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="98" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -5386,7 +5451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="97" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -5401,7 +5466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:L15">
-    <cfRule type="containsText" dxfId="96" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -5428,12 +5493,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="95" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="94" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -5460,12 +5525,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="93" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="92" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -5492,12 +5557,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="91" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -5512,7 +5577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="89" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -5527,7 +5592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="88" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -5542,7 +5607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L19">
-    <cfRule type="containsText" dxfId="87" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5569,7 +5634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J19">
-    <cfRule type="containsText" dxfId="86" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5586,12 +5651,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K19">
-    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="containsText" dxfId="84" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5606,7 +5671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5621,7 +5686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5649,86 +5714,86 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="14" width="3.81640625" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.6328125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="3.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="N2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -5737,14 +5802,14 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>0</v>
@@ -5783,19 +5848,19 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5831,14 +5896,14 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>0</v>
@@ -5877,14 +5942,14 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>0</v>
@@ -5923,14 +5988,14 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>0</v>
@@ -5969,10 +6034,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
@@ -5982,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>0</v>
@@ -6015,10 +6080,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19" t="s">
@@ -6028,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -6061,17 +6126,17 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -6107,10 +6172,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
@@ -6120,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>0</v>
@@ -6153,10 +6218,10 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
@@ -6169,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>0</v>
@@ -6199,10 +6264,10 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
@@ -6212,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>0</v>
@@ -6245,10 +6310,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
@@ -6261,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>0</v>
@@ -6291,10 +6356,10 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
@@ -6304,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>0</v>
@@ -6337,10 +6402,10 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
@@ -6350,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>0</v>
@@ -6383,10 +6448,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
@@ -6396,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>0</v>
@@ -6429,10 +6494,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
@@ -6445,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>0</v>
@@ -6475,10 +6540,10 @@
         <v>2022</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19" t="s">
@@ -6491,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -6517,9 +6582,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="E1:I1"/>
@@ -6562,7 +6627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="81" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -6601,12 +6666,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J18">
-    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6621,7 +6686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N18">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6648,7 +6713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6722,97 +6787,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="13" width="3.81640625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="3.81640625" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.6328125" style="3" customWidth="1"/>
+    <col min="11" max="13" width="3.6328125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="3.6328125" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>68</v>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="O2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -6821,17 +6885,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6870,22 +6934,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -6921,17 +6985,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -6970,17 +7034,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -7019,17 +7083,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -7068,13 +7132,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
@@ -7084,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>0</v>
@@ -7117,13 +7181,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
@@ -7133,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>0</v>
@@ -7166,20 +7230,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
@@ -7215,13 +7279,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
@@ -7231,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>0</v>
@@ -7264,13 +7328,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
@@ -7283,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>0</v>
@@ -7313,13 +7377,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
@@ -7329,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>0</v>
@@ -7362,13 +7426,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
@@ -7378,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>0</v>
@@ -7411,13 +7475,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -7427,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>0</v>
@@ -7460,13 +7524,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -7476,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -7509,23 +7573,23 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -7558,13 +7622,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -7577,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>0</v>
@@ -7607,13 +7671,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -7626,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>0</v>
@@ -7651,10 +7715,16 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
@@ -7685,7 +7755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="72" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7700,7 +7770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="71" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -7715,7 +7785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="containsText" dxfId="70" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -7730,7 +7800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M17">
-    <cfRule type="containsText" dxfId="69" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -7769,7 +7839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="68" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -7784,7 +7854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N17">
-    <cfRule type="containsText" dxfId="67" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -7823,7 +7893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="66" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -7838,7 +7908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M19">
-    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7865,7 +7935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7892,7 +7962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7907,7 +7977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O18">
-    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7922,7 +7992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7937,7 +8007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7952,7 +8022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8070,83 +8140,82 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.6328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>68</v>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -8155,17 +8224,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -8198,22 +8267,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -8243,17 +8312,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -8286,17 +8355,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -8329,17 +8398,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -8372,13 +8441,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
@@ -8388,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>0</v>
@@ -8415,13 +8484,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
@@ -8431,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>0</v>
@@ -8458,20 +8527,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
@@ -8501,13 +8570,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
@@ -8517,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>0</v>
@@ -8544,13 +8613,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
@@ -8563,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>0</v>
@@ -8587,13 +8656,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
@@ -8603,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>0</v>
@@ -8630,13 +8699,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
@@ -8649,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>0</v>
@@ -8673,13 +8742,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -8689,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>0</v>
@@ -8716,13 +8785,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -8732,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -8759,13 +8828,13 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
@@ -8775,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -8802,13 +8871,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -8821,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -8845,13 +8914,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -8864,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -8884,9 +8953,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
@@ -8929,7 +8998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="52" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -8944,7 +9013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -8959,7 +9028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="50" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -8998,7 +9067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9013,7 +9082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9028,7 +9097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M17">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9067,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L19">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -9094,7 +9163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M19">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -9212,16 +9281,15 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="3" customWidth="1"/>
     <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
     <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="3.81640625" customWidth="1"/>
@@ -9229,66 +9297,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>68</v>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -9297,17 +9365,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -9340,22 +9408,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -9385,17 +9453,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -9428,17 +9496,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -9471,17 +9539,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -9514,13 +9582,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
@@ -9530,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>0</v>
@@ -9557,13 +9625,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
@@ -9573,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>0</v>
@@ -9600,20 +9668,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>0</v>
@@ -9643,13 +9711,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
@@ -9659,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>0</v>
@@ -9686,13 +9754,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19" t="s">
@@ -9705,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>0</v>
@@ -9729,13 +9797,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19" t="s">
@@ -9745,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>0</v>
@@ -9772,13 +9840,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19" t="s">
@@ -9791,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>0</v>
@@ -9815,13 +9883,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -9834,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>0</v>
@@ -9858,13 +9926,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -9874,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -9901,13 +9969,13 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
@@ -9917,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -9944,13 +10012,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -9963,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -9987,13 +10055,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -10006,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -10026,9 +10094,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
@@ -10071,7 +10139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -10086,7 +10154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -10101,7 +10169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -10140,7 +10208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -10155,7 +10223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M17">
-    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -10194,7 +10262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -10209,7 +10277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -10224,7 +10292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M19">
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="9">
@@ -10251,7 +10319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L19">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10395,83 +10463,82 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="3.6328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="3.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>68</v>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -10480,17 +10547,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
@@ -10523,22 +10590,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>69</v>
-      </c>
       <c r="E4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
@@ -10568,17 +10635,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
@@ -10611,17 +10678,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
@@ -10654,17 +10721,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
@@ -10697,13 +10764,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="32" t="s">
@@ -10713,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>0</v>
@@ -10740,13 +10807,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="32" t="s">
@@ -10756,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>0</v>
@@ -10783,20 +10850,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
@@ -10826,13 +10893,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="32" t="s">
@@ -10842,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>0</v>
@@ -10869,13 +10936,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="32" t="s">
@@ -10888,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>0</v>
@@ -10912,13 +10979,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="32" t="s">
@@ -10928,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>0</v>
@@ -10955,13 +11022,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="32" t="s">
@@ -10974,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>0</v>
@@ -10998,13 +11065,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -11017,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>0</v>
@@ -11041,13 +11108,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -11057,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -11084,13 +11151,13 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
@@ -11100,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -11127,13 +11194,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -11146,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>0</v>
@@ -11170,13 +11237,13 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19" t="s">
@@ -11189,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>0</v>
@@ -11209,9 +11276,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
@@ -11242,7 +11309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -11257,7 +11324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M19">
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -11296,7 +11363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L19">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -11392,97 +11459,96 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="13" width="3.81640625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="3.81640625" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.6328125" style="3" customWidth="1"/>
+    <col min="11" max="13" width="3.6328125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="3.6328125" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="51"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>68</v>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="O2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -11491,17 +11557,17 @@
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>0</v>
@@ -11540,22 +11606,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>0</v>
@@ -11591,17 +11657,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>0</v>
@@ -11640,17 +11706,17 @@
         <v>2010</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>0</v>
@@ -11689,17 +11755,17 @@
         <v>2011</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>0</v>
@@ -11738,13 +11804,13 @@
         <v>2012</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="32" t="s">
@@ -11754,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>0</v>
@@ -11787,13 +11853,13 @@
         <v>2013</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="32" t="s">
@@ -11803,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>0</v>
@@ -11836,20 +11902,20 @@
         <v>2014</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>0</v>
@@ -11885,13 +11951,13 @@
         <v>2015</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="32" t="s">
@@ -11901,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>0</v>
@@ -11934,13 +12000,13 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="32" t="s">
@@ -11953,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>0</v>
@@ -11983,13 +12049,13 @@
         <v>2017</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="32" t="s">
@@ -11999,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>0</v>
@@ -12032,13 +12098,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="32" t="s">
@@ -12051,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>0</v>
@@ -12081,13 +12147,13 @@
         <v>2019</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
@@ -12100,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>0</v>
@@ -12130,13 +12196,13 @@
         <v>2020</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19" t="s">
@@ -12146,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>0</v>
@@ -12179,23 +12245,23 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>0</v>
@@ -12228,13 +12294,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19" t="s">
@@ -12247,10 +12313,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>0</v>
@@ -12277,17 +12343,17 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -12296,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>0</v>
@@ -12321,10 +12387,18 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
@@ -12355,7 +12429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12370,7 +12444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N17">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -12409,7 +12483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M17">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -12424,7 +12498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12439,7 +12513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -12454,7 +12528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N19">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="13">
@@ -12493,7 +12567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M19">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -12508,7 +12582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -12523,7 +12597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12625,13 +12699,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12639,10 +12713,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12650,10 +12724,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12661,10 +12735,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12672,10 +12746,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12683,10 +12757,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12694,10 +12768,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
